--- a/Source/Pivot Excel/Cau2_Top5Season.xlsx
+++ b/Source/Pivot Excel/Cau2_Top5Season.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIET's Folder\CODE\UIT\Third_year\Semester 2\IS217_Data_warehouse_and_OLAP\SASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - IT software\Máy tính\UIT\nam_BA\HK2\IS217-KhoDLvaOLAP\PROJECT\Project-OLAP\IS217---Datawarehouse-and-OLAP\Source\Pivot Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A027E-C54A-4E23-85F6-EAC2A72F75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D1ED9-A5DA-40D1-B679-37BF9567E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp4088" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,5 +1293,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>